--- a/planilha_teste.xlsx
+++ b/planilha_teste.xlsx
@@ -1,46 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>OD (mg/L)</t>
+  </si>
+  <si>
+    <t>temperatura (ºC)</t>
+  </si>
+  <si>
+    <t>fosforo_total (ug/L)</t>
+  </si>
+  <si>
+    <t>fosforo_reativo (ug/L)</t>
+  </si>
+  <si>
+    <t>nitrog_amoniacal (ug/L)</t>
+  </si>
+  <si>
+    <t>nitrog_total (ug/L)</t>
+  </si>
+  <si>
+    <t>nitrito (ug/L)</t>
+  </si>
+  <si>
+    <t>nitrato (ug/L)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -49,94 +88,74 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="11">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -145,10 +164,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -186,69 +205,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -272,54 +293,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -329,7 +349,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -338,7 +358,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -347,7 +367,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -355,10 +375,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -387,7 +407,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -400,13 +420,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -424,387 +443,379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>OD (mg/L)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>temperatura (ºC)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>fosforo_total (ug/L)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>fosforo_reativo (ug/L)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>nitrog_amoniacal (ug/L)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>nitrog_total (ug/L)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>nitrito (ug/L)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>nitrato (ug/L)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+      <c r="A2" s="4">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>40253</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" s="5">
+        <v>25568.875465891204</v>
+      </c>
+      <c r="C2" s="6">
         <v>3.774</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="6">
         <v>21.235</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="6">
         <v>0.02135261827</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="6">
         <v>0.003745672071</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="6">
         <v>0.1820483864</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="6">
         <v>0.1873024954</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="6">
         <v>0.002147887089</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="6">
         <v>0.04909028616</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+      <c r="A3" s="4">
         <v>43</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>40281</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" s="5">
+        <v>25568.87546621528</v>
+      </c>
+      <c r="C3" s="6">
         <v>5.3995</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="6">
         <v>20.095</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="6">
         <v>0.01780225887</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="6">
         <v>0.005104784143</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="6">
         <v>0.2426537174</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="6">
         <v>0.1764803512</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="6">
         <v>0.003916765172</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="6">
         <v>0.02854243982</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+      <c r="A4" s="4">
         <v>78</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>40316</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" s="5">
+        <v>25568.87546662037</v>
+      </c>
+      <c r="C4" s="6">
         <v>5.373</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="7">
         <v>18</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="6">
         <v>0.01712020383</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="6">
         <v>0.01024108113</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="6">
         <v>0.339960302</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="6">
         <v>0.2465663289</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="6">
         <v>0.009352676818000002</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="6">
         <v>0.2344419855</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="A5" s="4">
         <v>114</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>40352</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" s="5">
+        <v>25568.875467037036</v>
+      </c>
+      <c r="C5" s="6">
         <v>7.528571429</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="6">
         <v>16.01428571</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="6">
         <v>0.006714323385</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="6">
         <v>0.005082294028</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="6">
         <v>0.3924594435</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="6">
         <v>0.2466938819</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="6">
         <v>0.005440872725</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="6">
         <v>0.3025032825</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+      <c r="A6" s="4">
         <v>148</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>40386</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" s="5">
+        <v>25568.875467430556</v>
+      </c>
+      <c r="C6" s="6">
         <v>8.397142857</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="6">
         <v>16.53809524</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="6">
         <v>0.01271699472</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="6">
         <v>0.004867008052000001</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="6">
         <v>0.3231235741</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="6">
         <v>0.3160240367</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="6">
         <v>0.006201486678000001</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="6">
         <v>0.3387404022</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+      <c r="A7" s="4">
         <v>169</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>40407</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" s="5">
+        <v>25568.87546767361</v>
+      </c>
+      <c r="C7" s="6">
         <v>8.491428571</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="6">
         <v>14.73809524</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="6">
         <v>0.01981216995</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="6">
         <v>0.005786689673</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="6">
         <v>0.3244695817</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="6">
         <v>0.3009464615</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="6">
         <v>0.006130042596</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="6">
         <v>0.3355298022</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+      <c r="A8" s="4">
         <v>204</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>40442</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" s="5">
+        <v>25568.875468078702</v>
+      </c>
+      <c r="C8" s="6">
         <v>7.887142857</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="6">
         <v>17.0952381</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="6">
         <v>0.04512154593000001</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="6">
         <v>0.003644363553</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="6">
         <v>0.3317946309</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="6">
         <v>0.351736796</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="6">
         <v>0.003646059751</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="6">
         <v>0.3402112626</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+      <c r="A9" s="4">
         <v>239</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>40477</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" s="5">
+        <v>25568.875468483795</v>
+      </c>
+      <c r="C9" s="6">
         <v>10.0365</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="6">
         <v>18.845</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="6">
         <v>0.01413559286</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="6">
         <v>0.001730516667</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="6">
         <v>0.06360368755</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="6">
         <v>0.4405266393</v>
       </c>
-      <c r="I9" t="n">
-        <v>7.0713825e-06</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="I9" s="6">
+        <v>0.0000070713825</v>
+      </c>
+      <c r="J9" s="6">
         <v>0.4069880593</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+      <c r="A10" s="4">
         <v>266</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>40504</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" s="5">
+        <v>25568.875468796297</v>
+      </c>
+      <c r="C10" s="6">
         <v>2.96952381</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="6">
         <v>20.62857143</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="6">
         <v>0.02090779426</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="6">
         <v>0.01172183088</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="6">
         <v>0.2278872445</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="6">
         <v>0.2400729643</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="6">
         <v>0.004481871947</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="6">
         <v>0.1535232274</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
+      <c r="A11" s="4">
         <v>296</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>40534</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" s="5">
+        <v>25568.875469143517</v>
+      </c>
+      <c r="C11" s="6">
         <v>2.724761905</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="6">
         <v>20.84285714</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="6">
         <v>0.01771513636</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="6">
         <v>0.00709106993</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="6">
         <v>0.2614273645</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="6">
         <v>0.2319311698</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="6">
         <v>0.1701201862</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="6">
         <v>0.004594908717</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/planilha_teste.xlsx
+++ b/planilha_teste.xlsx
@@ -43,7 +43,7 @@
     <t>nitrato (ug/L)</t>
   </si>
   <si>
-    <t>NaN</t>
+    <t>None</t>
   </si>
 </sst>
 </file>

--- a/planilha_teste.xlsx
+++ b/planilha_teste.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="11">
   <si>
     <t>data</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -117,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -149,11 +152,8 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -475,27 +475,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="15" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="15" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="14" width="22.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="14" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="14" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
@@ -12537,16 +12537,36 @@
       <c r="U280" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
-      <c r="A281" s="10"/>
-      <c r="B281" s="11"/>
-      <c r="C281" s="12"/>
-      <c r="D281" s="12"/>
-      <c r="E281" s="12"/>
-      <c r="F281" s="12"/>
-      <c r="G281" s="12"/>
-      <c r="H281" s="12"/>
-      <c r="I281" s="12"/>
-      <c r="J281" s="12"/>
+      <c r="A281" s="10">
+        <v>294</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C281" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D281" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E281" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F281" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G281" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H281" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I281" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J281" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K281" s="4"/>
       <c r="L281" s="4"/>
       <c r="M281" s="4"/>
@@ -12560,16 +12580,36 @@
       <c r="U281" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75">
-      <c r="A282" s="10"/>
-      <c r="B282" s="11"/>
-      <c r="C282" s="12"/>
-      <c r="D282" s="12"/>
-      <c r="E282" s="12"/>
-      <c r="F282" s="12"/>
-      <c r="G282" s="12"/>
-      <c r="H282" s="12"/>
-      <c r="I282" s="12"/>
-      <c r="J282" s="12"/>
+      <c r="A282" s="10">
+        <v>295</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C282" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D282" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E282" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F282" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G282" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H282" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I282" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J282" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K282" s="4"/>
       <c r="L282" s="4"/>
       <c r="M282" s="4"/>
@@ -12583,16 +12623,36 @@
       <c r="U282" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
-      <c r="A283" s="10"/>
-      <c r="B283" s="11"/>
-      <c r="C283" s="12"/>
-      <c r="D283" s="12"/>
-      <c r="E283" s="12"/>
-      <c r="F283" s="12"/>
-      <c r="G283" s="12"/>
-      <c r="H283" s="12"/>
-      <c r="I283" s="12"/>
-      <c r="J283" s="12"/>
+      <c r="A283" s="1">
+        <v>296</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C283" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D283" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E283" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F283" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G283" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H283" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I283" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J283" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K283" s="4"/>
       <c r="L283" s="4"/>
       <c r="M283" s="4"/>
@@ -12606,16 +12666,36 @@
       <c r="U283" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75">
-      <c r="A284" s="10"/>
-      <c r="B284" s="11"/>
-      <c r="C284" s="12"/>
-      <c r="D284" s="12"/>
-      <c r="E284" s="12"/>
-      <c r="F284" s="12"/>
-      <c r="G284" s="12"/>
-      <c r="H284" s="12"/>
-      <c r="I284" s="12"/>
-      <c r="J284" s="12"/>
+      <c r="A284" s="5">
+        <v>297</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C284" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D284" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E284" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F284" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G284" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H284" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I284" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J284" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K284" s="4"/>
       <c r="L284" s="4"/>
       <c r="M284" s="4"/>
@@ -12629,16 +12709,36 @@
       <c r="U284" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75">
-      <c r="A285" s="10"/>
-      <c r="B285" s="11"/>
-      <c r="C285" s="12"/>
-      <c r="D285" s="12"/>
-      <c r="E285" s="12"/>
-      <c r="F285" s="12"/>
-      <c r="G285" s="12"/>
-      <c r="H285" s="12"/>
-      <c r="I285" s="12"/>
-      <c r="J285" s="12"/>
+      <c r="A285" s="10">
+        <v>298</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C285" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D285" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E285" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F285" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G285" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H285" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I285" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J285" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K285" s="4"/>
       <c r="L285" s="4"/>
       <c r="M285" s="4"/>
@@ -12652,16 +12752,36 @@
       <c r="U285" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75">
-      <c r="A286" s="10"/>
-      <c r="B286" s="11"/>
-      <c r="C286" s="12"/>
-      <c r="D286" s="12"/>
-      <c r="E286" s="12"/>
-      <c r="F286" s="12"/>
-      <c r="G286" s="12"/>
-      <c r="H286" s="12"/>
-      <c r="I286" s="12"/>
-      <c r="J286" s="12"/>
+      <c r="A286" s="10">
+        <v>299</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C286" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D286" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E286" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F286" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G286" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H286" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I286" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J286" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K286" s="4"/>
       <c r="L286" s="4"/>
       <c r="M286" s="4"/>
@@ -12675,16 +12795,36 @@
       <c r="U286" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
-      <c r="A287" s="10"/>
-      <c r="B287" s="11"/>
-      <c r="C287" s="12"/>
-      <c r="D287" s="12"/>
-      <c r="E287" s="12"/>
-      <c r="F287" s="12"/>
-      <c r="G287" s="12"/>
-      <c r="H287" s="12"/>
-      <c r="I287" s="12"/>
-      <c r="J287" s="12"/>
+      <c r="A287" s="1">
+        <v>300</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C287" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D287" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E287" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F287" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G287" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H287" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I287" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J287" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K287" s="4"/>
       <c r="L287" s="4"/>
       <c r="M287" s="4"/>
@@ -12698,16 +12838,36 @@
       <c r="U287" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
-      <c r="A288" s="10"/>
-      <c r="B288" s="11"/>
-      <c r="C288" s="12"/>
-      <c r="D288" s="12"/>
-      <c r="E288" s="12"/>
-      <c r="F288" s="12"/>
-      <c r="G288" s="12"/>
-      <c r="H288" s="12"/>
-      <c r="I288" s="12"/>
-      <c r="J288" s="12"/>
+      <c r="A288" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C288" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D288" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E288" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F288" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G288" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H288" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I288" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J288" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K288" s="4"/>
       <c r="L288" s="4"/>
       <c r="M288" s="4"/>
@@ -12721,16 +12881,36 @@
       <c r="U288" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
-      <c r="A289" s="10"/>
-      <c r="B289" s="11"/>
-      <c r="C289" s="12"/>
-      <c r="D289" s="12"/>
-      <c r="E289" s="12"/>
-      <c r="F289" s="12"/>
-      <c r="G289" s="12"/>
-      <c r="H289" s="12"/>
-      <c r="I289" s="12"/>
-      <c r="J289" s="12"/>
+      <c r="A289" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C289" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D289" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E289" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F289" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G289" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H289" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I289" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J289" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K289" s="4"/>
       <c r="L289" s="4"/>
       <c r="M289" s="4"/>
@@ -12744,16 +12924,36 @@
       <c r="U289" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75">
-      <c r="A290" s="10"/>
-      <c r="B290" s="11"/>
-      <c r="C290" s="12"/>
-      <c r="D290" s="12"/>
-      <c r="E290" s="12"/>
-      <c r="F290" s="12"/>
-      <c r="G290" s="12"/>
-      <c r="H290" s="12"/>
-      <c r="I290" s="12"/>
-      <c r="J290" s="12"/>
+      <c r="A290" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C290" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D290" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E290" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F290" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G290" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H290" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I290" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J290" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K290" s="4"/>
       <c r="L290" s="4"/>
       <c r="M290" s="4"/>
@@ -12767,16 +12967,36 @@
       <c r="U290" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
-      <c r="A291" s="10"/>
-      <c r="B291" s="11"/>
-      <c r="C291" s="12"/>
-      <c r="D291" s="12"/>
-      <c r="E291" s="12"/>
-      <c r="F291" s="12"/>
-      <c r="G291" s="12"/>
-      <c r="H291" s="12"/>
-      <c r="I291" s="12"/>
-      <c r="J291" s="12"/>
+      <c r="A291" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C291" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D291" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E291" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F291" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G291" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H291" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I291" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J291" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K291" s="4"/>
       <c r="L291" s="4"/>
       <c r="M291" s="4"/>
@@ -12793,15 +13013,33 @@
       <c r="A292" s="5">
         <v>266</v>
       </c>
-      <c r="B292" s="11"/>
-      <c r="C292" s="12"/>
-      <c r="D292" s="12"/>
-      <c r="E292" s="12"/>
-      <c r="F292" s="12"/>
-      <c r="G292" s="12"/>
-      <c r="H292" s="12"/>
-      <c r="I292" s="12"/>
-      <c r="J292" s="12"/>
+      <c r="B292" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C292" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D292" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E292" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F292" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G292" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H292" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I292" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J292" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K292" s="4"/>
       <c r="L292" s="4"/>
       <c r="M292" s="4"/>

--- a/planilha_teste.xlsx
+++ b/planilha_teste.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="10">
   <si>
     <t>data</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>None</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -120,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -150,9 +147,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -475,27 +469,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="22.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="13" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
@@ -12838,8 +12832,8 @@
       <c r="U287" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
-      <c r="A288" s="11" t="s">
-        <v>10</v>
+      <c r="A288" s="5">
+        <v>301</v>
       </c>
       <c r="B288" s="8" t="s">
         <v>9</v>
@@ -12881,8 +12875,8 @@
       <c r="U288" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
-      <c r="A289" s="11" t="s">
-        <v>10</v>
+      <c r="A289" s="10">
+        <v>302</v>
       </c>
       <c r="B289" s="8" t="s">
         <v>9</v>
@@ -12924,8 +12918,8 @@
       <c r="U289" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75">
-      <c r="A290" s="11" t="s">
-        <v>10</v>
+      <c r="A290" s="10">
+        <v>303</v>
       </c>
       <c r="B290" s="8" t="s">
         <v>9</v>
@@ -12967,8 +12961,8 @@
       <c r="U290" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
-      <c r="A291" s="11" t="s">
-        <v>10</v>
+      <c r="A291" s="1">
+        <v>304</v>
       </c>
       <c r="B291" s="8" t="s">
         <v>9</v>
@@ -13011,7 +13005,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="20.25">
       <c r="A292" s="5">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="B292" s="8" t="s">
         <v>9</v>
